--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H2">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I2">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J2">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>123.0196872916296</v>
+        <v>133.98624360646</v>
       </c>
       <c r="R2">
-        <v>123.0196872916296</v>
+        <v>535.9449744258401</v>
       </c>
       <c r="S2">
-        <v>0.01852890874506663</v>
+        <v>0.01922338910311957</v>
       </c>
       <c r="T2">
-        <v>0.01852890874506663</v>
+        <v>0.01058381333410408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H3">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I3">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J3">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>474.421908870734</v>
+        <v>520.729773410932</v>
       </c>
       <c r="R3">
-        <v>474.421908870734</v>
+        <v>3124.378640465592</v>
       </c>
       <c r="S3">
-        <v>0.07145620712957433</v>
+        <v>0.07471058806051194</v>
       </c>
       <c r="T3">
-        <v>0.07145620712957433</v>
+        <v>0.0617000660397561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H4">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I4">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J4">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>680.8901142516147</v>
+        <v>716.697209681908</v>
       </c>
       <c r="R4">
-        <v>680.8901142516147</v>
+        <v>4300.183258091449</v>
       </c>
       <c r="S4">
-        <v>0.1025539169391514</v>
+        <v>0.1028265959250397</v>
       </c>
       <c r="T4">
-        <v>0.1025539169391514</v>
+        <v>0.08491979415393708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H5">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I5">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J5">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>678.5947174519421</v>
+        <v>709.2473851019909</v>
       </c>
       <c r="R5">
-        <v>678.5947174519421</v>
+        <v>4255.484310611944</v>
       </c>
       <c r="S5">
-        <v>0.1022081901797098</v>
+        <v>0.1017577483120685</v>
       </c>
       <c r="T5">
-        <v>0.1022081901797098</v>
+        <v>0.08403708167611079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H6">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I6">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J6">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>92.51874966654049</v>
+        <v>104.815584888688</v>
       </c>
       <c r="R6">
-        <v>92.51874966654049</v>
+        <v>628.8935093321281</v>
       </c>
       <c r="S6">
-        <v>0.01393493600512211</v>
+        <v>0.01503819137063384</v>
       </c>
       <c r="T6">
-        <v>0.01393493600512211</v>
+        <v>0.01241935614179718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H7">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I7">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J7">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>221.7076017583975</v>
+        <v>229.801704399992</v>
       </c>
       <c r="R7">
-        <v>221.7076017583975</v>
+        <v>919.2068175999681</v>
       </c>
       <c r="S7">
-        <v>0.03339302847787709</v>
+        <v>0.03297030696088656</v>
       </c>
       <c r="T7">
-        <v>0.03339302847787709</v>
+        <v>0.0181524481749947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H8">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I8">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J8">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>73.63367006558468</v>
+        <v>80.67581456471835</v>
       </c>
       <c r="R8">
-        <v>73.63367006558468</v>
+        <v>484.0548873883101</v>
       </c>
       <c r="S8">
-        <v>0.01109051391079576</v>
+        <v>0.01157478956678452</v>
       </c>
       <c r="T8">
-        <v>0.01109051391079576</v>
+        <v>0.009559090608260844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H9">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I9">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J9">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>283.9661445965114</v>
+        <v>313.5418794292004</v>
       </c>
       <c r="R9">
-        <v>283.9661445965114</v>
+        <v>2821.876914862803</v>
       </c>
       <c r="S9">
-        <v>0.04277024999619845</v>
+        <v>0.04498474907688448</v>
       </c>
       <c r="T9">
-        <v>0.04277024999619845</v>
+        <v>0.05572627777827607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H10">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I10">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J10">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>407.5480854122849</v>
+        <v>431.5378178462564</v>
       </c>
       <c r="R10">
-        <v>407.5480854122849</v>
+        <v>3883.840360616307</v>
       </c>
       <c r="S10">
-        <v>0.06138384392027841</v>
+        <v>0.06191396341803077</v>
       </c>
       <c r="T10">
-        <v>0.06138384392027841</v>
+        <v>0.07669787638228967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H11">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I11">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J11">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>406.1741712499443</v>
+        <v>427.0521284935913</v>
       </c>
       <c r="R11">
-        <v>406.1741712499443</v>
+        <v>3843.469156442321</v>
       </c>
       <c r="S11">
-        <v>0.06117690850450861</v>
+        <v>0.06127038875319223</v>
       </c>
       <c r="T11">
-        <v>0.06117690850450861</v>
+        <v>0.07590062795299296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H12">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I12">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J12">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>55.3772752785236</v>
+        <v>63.11157371356136</v>
       </c>
       <c r="R12">
-        <v>55.3772752785236</v>
+        <v>568.0041634220521</v>
       </c>
       <c r="S12">
-        <v>0.008340782705403721</v>
+        <v>0.009054797759458262</v>
       </c>
       <c r="T12">
-        <v>0.008340782705403721</v>
+        <v>0.01121691652224793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H13">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I13">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J13">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>132.7035107820556</v>
+        <v>138.3682323782687</v>
       </c>
       <c r="R13">
-        <v>132.7035107820556</v>
+        <v>830.2093942696121</v>
       </c>
       <c r="S13">
-        <v>0.01998746132073755</v>
+        <v>0.019852085549401</v>
       </c>
       <c r="T13">
-        <v>0.01998746132073755</v>
+        <v>0.0163949317121268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H14">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I14">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J14">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>125.1416417642367</v>
+        <v>131.887021003955</v>
       </c>
       <c r="R14">
-        <v>125.1416417642367</v>
+        <v>791.32212602373</v>
       </c>
       <c r="S14">
-        <v>0.01884851206750816</v>
+        <v>0.01892220763989007</v>
       </c>
       <c r="T14">
-        <v>0.01884851206750816</v>
+        <v>0.01562698797195353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H15">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I15">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J15">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>482.6051656615317</v>
+        <v>512.571266382761</v>
       </c>
       <c r="R15">
-        <v>482.6051656615317</v>
+        <v>4613.141397444849</v>
       </c>
       <c r="S15">
-        <v>0.07268874821021204</v>
+        <v>0.07354006375233207</v>
       </c>
       <c r="T15">
-        <v>0.07268874821021204</v>
+        <v>0.09110007512747059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H16">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I16">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J16">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>692.6347207865433</v>
+        <v>705.468392892809</v>
       </c>
       <c r="R16">
-        <v>692.6347207865433</v>
+        <v>6349.215536035281</v>
       </c>
       <c r="S16">
-        <v>0.1043228593541693</v>
+        <v>0.1012155655050922</v>
       </c>
       <c r="T16">
-        <v>0.1043228593541693</v>
+        <v>0.1253839764490402</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H17">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I17">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J17">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>690.299730913496</v>
+        <v>698.1352880575604</v>
       </c>
       <c r="R17">
-        <v>690.299730913496</v>
+        <v>6283.217592518043</v>
       </c>
       <c r="S17">
-        <v>0.1039711691878971</v>
+        <v>0.1001634640072997</v>
       </c>
       <c r="T17">
-        <v>0.1039711691878971</v>
+        <v>0.124080652511038</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H18">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I18">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J18">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>94.11459646941468</v>
+        <v>103.173392086124</v>
       </c>
       <c r="R18">
-        <v>94.11459646941468</v>
+        <v>928.560528775116</v>
       </c>
       <c r="S18">
-        <v>0.01417529834413104</v>
+        <v>0.01480258127831158</v>
       </c>
       <c r="T18">
-        <v>0.01417529834413104</v>
+        <v>0.01833716477424063</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H19">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I19">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J19">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>225.5318143500534</v>
+        <v>226.201297977766</v>
       </c>
       <c r="R19">
-        <v>225.5318143500534</v>
+        <v>1357.207787866596</v>
       </c>
       <c r="S19">
-        <v>0.03396902153795169</v>
+        <v>0.03245374636689671</v>
       </c>
       <c r="T19">
-        <v>0.03396902153795169</v>
+        <v>0.02680206843577749</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H20">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I20">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J20">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>37.832626018944</v>
+        <v>40.105678774</v>
       </c>
       <c r="R20">
-        <v>37.832626018944</v>
+        <v>160.422715096</v>
       </c>
       <c r="S20">
-        <v>0.005698252779894227</v>
+        <v>0.005754076295935161</v>
       </c>
       <c r="T20">
-        <v>0.005698252779894227</v>
+        <v>0.003168019390321133</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H21">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I21">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J21">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>145.9004412110975</v>
+        <v>155.8683970708</v>
       </c>
       <c r="R21">
-        <v>145.9004412110975</v>
+        <v>935.2103824248001</v>
       </c>
       <c r="S21">
-        <v>0.0219751490235606</v>
+        <v>0.02236288416721511</v>
       </c>
       <c r="T21">
-        <v>0.0219751490235606</v>
+        <v>0.01846848573643972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H22">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I22">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J22">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>209.3962488411407</v>
+        <v>214.5267103252</v>
       </c>
       <c r="R22">
-        <v>209.3962488411407</v>
+        <v>1287.1602619512</v>
       </c>
       <c r="S22">
-        <v>0.03153872418110717</v>
+        <v>0.03077875992781924</v>
       </c>
       <c r="T22">
-        <v>0.03153872418110717</v>
+        <v>0.0254187735563011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H23">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I23">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J23">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>208.6903383434069</v>
+        <v>212.2967778822667</v>
       </c>
       <c r="R23">
-        <v>208.6903383434069</v>
+        <v>1273.7806672936</v>
       </c>
       <c r="S23">
-        <v>0.03143240175839049</v>
+        <v>0.03045882515040967</v>
       </c>
       <c r="T23">
-        <v>0.03143240175839049</v>
+        <v>0.02515455402052933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H24">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I24">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J24">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>28.45257806237884</v>
+        <v>31.37411770720001</v>
       </c>
       <c r="R24">
-        <v>28.45257806237884</v>
+        <v>188.2447062432001</v>
       </c>
       <c r="S24">
-        <v>0.004285454093456904</v>
+        <v>0.004501334287899244</v>
       </c>
       <c r="T24">
-        <v>0.004285454093456904</v>
+        <v>0.003717446616876473</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H25">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I25">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J25">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>68.18242646803685</v>
+        <v>68.7858177848</v>
       </c>
       <c r="R25">
-        <v>68.18242646803685</v>
+        <v>275.1432711392</v>
       </c>
       <c r="S25">
-        <v>0.01026946162729703</v>
+        <v>0.009868897764887703</v>
       </c>
       <c r="T25">
-        <v>0.01026946162729703</v>
+        <v>0.005433514933117503</v>
       </c>
     </row>
   </sheetData>
